--- a/Coordonnées_points.xlsx
+++ b/Coordonnées_points.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,8 +103,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,23 +239,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
